--- a/Processed Results/Mi 9T/HTTPS Request.xlsx
+++ b/Processed Results/Mi 9T/HTTPS Request.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Downloads\Processed Results\Mi 9T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2575D6C-32E6-4335-A85C-B4CD6CFBE0DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3541826-66FA-4B78-9627-903E440F30A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
@@ -16,16 +16,14 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$34:$A$63</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$33</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$34:$B$63</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$66:$A$95</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$65</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$B$66:$B$95</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$66:$A$95</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$65</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$B$66:$B$95</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$98:$B$187</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$33</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$B$34:$B$63</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Blad1!$A$2:$A$31</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$2:$B$31</definedName>
   </definedNames>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
   <si>
     <t>Mean line</t>
   </si>
@@ -95,6 +93,12 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Relative std</t>
   </si>
 </sst>
 </file>
@@ -2223,10 +2227,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2344,10 +2348,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2385,7 +2389,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3F5A16A3-6E4C-4475-A634-1322A70DC713}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Medium_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2472,10 +2476,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2513,7 +2517,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{138ACD3C-CAEA-4AEF-B3DF-B982F1EA92CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>High_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7207,8 +7211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R96" sqref="R96"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7399,6 +7403,12 @@
       <c r="B15" s="1">
         <v>107.2602</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -7407,6 +7417,14 @@
       <c r="B16" s="1">
         <v>112.504032</v>
       </c>
+      <c r="D16">
+        <f>STDEV(B2:B31)</f>
+        <v>8.687703055422892</v>
+      </c>
+      <c r="E16">
+        <f xml:space="preserve"> (D16 / E4) * 100</f>
+        <v>7.6138685025933945</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -7712,6 +7730,12 @@
       <c r="B47" s="1">
         <v>111.40804799999999</v>
       </c>
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -7720,6 +7744,14 @@
       <c r="B48" s="1">
         <v>112.50954</v>
       </c>
+      <c r="D48">
+        <f>STDEV(B34:B63)</f>
+        <v>8.4239171090860925</v>
+      </c>
+      <c r="E48">
+        <f xml:space="preserve"> (D48 / E36) * 100</f>
+        <v>7.2109554805592602</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -8025,6 +8057,12 @@
       <c r="B79" s="1">
         <v>109.338768</v>
       </c>
+      <c r="D79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -8032,6 +8070,14 @@
       </c>
       <c r="B80" s="1">
         <v>145.679688</v>
+      </c>
+      <c r="D80">
+        <f>STDEV(B66:B95)</f>
+        <v>13.710867690342557</v>
+      </c>
+      <c r="E80">
+        <f xml:space="preserve"> (D80 / E68) * 100</f>
+        <v>11.396328866130942</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
